--- a/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS90103_アクセスレベル一括更新画面_rev.2.0.xlsx
+++ b/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS90103_アクセスレベル一括更新画面_rev.2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\06.T_テスト／追加\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17269242-D143-42CF-A521-AAFCABF61D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83A3CC0-33C0-4547-9062-0348DAAF7DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="246">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -4109,6 +4109,17 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="3">
+      <t>マエイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4500,48 +4511,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4649,6 +4618,48 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4947,196 +4958,196 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.2109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.2109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="15.78515625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="42.2109375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" style="48" customWidth="1"/>
-    <col min="8" max="16384" width="7.42578125" style="48"/>
+    <col min="1" max="1" width="3.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="34" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="57" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="7.375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="33" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A2" s="49">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="37">
         <v>45557</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-    </row>
-    <row r="3" spans="1:7" s="61" customFormat="1" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A3" s="49">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" s="47" customFormat="1" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="60">
         <v>45557</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A4" s="49">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="60">
         <v>45566</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" ht="23.15" x14ac:dyDescent="0.65">
-      <c r="A5" s="49">
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="42">
         <v>45616</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A6" s="49">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A7" s="49">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A8" s="49">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A9" s="49">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A10" s="64">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="50">
         <v>9</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A11" s="49">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A12" s="49">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="C13" s="70"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5149,41 +5160,41 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="12" width="46.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="46.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.7" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
@@ -5194,11 +5205,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
@@ -5210,27 +5221,27 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>34</v>
       </c>
@@ -5240,14 +5251,14 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -5267,7 +5278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -5277,10 +5288,10 @@
       <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="28" t="s">
         <v>226</v>
       </c>
       <c r="F7" s="12"/>
@@ -5290,15 +5301,21 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="O7" s="15">
+        <v>45643</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -5327,7 +5344,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -5352,7 +5369,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -5377,7 +5394,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -5402,7 +5419,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -5427,7 +5444,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>7</v>
       </c>
@@ -5452,7 +5469,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <v>8</v>
       </c>
@@ -5477,7 +5494,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -5502,7 +5519,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <v>10</v>
       </c>
@@ -5529,7 +5546,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -5554,7 +5571,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -5581,7 +5598,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -5606,7 +5623,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
         <v>14</v>
       </c>
@@ -5631,7 +5648,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <v>15</v>
       </c>
@@ -5656,7 +5673,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
         <v>16</v>
       </c>
@@ -5681,7 +5698,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>17</v>
       </c>
@@ -5710,7 +5727,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <v>18</v>
       </c>
@@ -5735,7 +5752,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
         <v>19</v>
       </c>
@@ -5762,7 +5779,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <v>20</v>
       </c>
@@ -5787,7 +5804,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <v>21</v>
       </c>
@@ -5816,7 +5833,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <v>22</v>
       </c>
@@ -5843,7 +5860,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" ht="154.30000000000001" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
         <v>23</v>
       </c>
@@ -5870,7 +5887,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
         <v>24</v>
       </c>
@@ -5897,7 +5914,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
         <v>25</v>
       </c>
@@ -5930,7 +5947,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="1:17" ht="169.75" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
       <c r="A32" s="10">
         <v>26</v>
       </c>
@@ -5955,7 +5972,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="16"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="10">
         <v>27</v>
       </c>
@@ -5984,7 +6001,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="16"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="10">
         <v>28</v>
       </c>
@@ -6009,7 +6026,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="16"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="10">
         <v>29</v>
       </c>
@@ -6034,7 +6051,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="16"/>
     </row>
-    <row r="36" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
         <v>30</v>
       </c>
@@ -6063,7 +6080,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="16"/>
     </row>
-    <row r="37" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
         <v>31</v>
       </c>
@@ -6090,7 +6107,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="16"/>
     </row>
-    <row r="38" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
         <v>32</v>
       </c>
@@ -6117,7 +6134,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>33</v>
       </c>
@@ -6144,7 +6161,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="16"/>
     </row>
-    <row r="40" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A40" s="10">
         <v>34</v>
       </c>
@@ -6171,7 +6188,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A41" s="10">
         <v>35</v>
       </c>
@@ -6198,7 +6215,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="16"/>
     </row>
-    <row r="42" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A42" s="10">
         <v>36</v>
       </c>
@@ -6225,7 +6242,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="16"/>
     </row>
-    <row r="43" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A43" s="10">
         <v>37</v>
       </c>
@@ -6252,7 +6269,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="16"/>
     </row>
-    <row r="44" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A44" s="10">
         <v>38</v>
       </c>
@@ -6279,7 +6296,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="16"/>
     </row>
-    <row r="45" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A45" s="10">
         <v>39</v>
       </c>
@@ -6308,7 +6325,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="16"/>
     </row>
-    <row r="46" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A46" s="10">
         <v>40</v>
       </c>
@@ -6335,7 +6352,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="16"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="10">
         <v>41</v>
       </c>
@@ -6362,7 +6379,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="16"/>
     </row>
-    <row r="48" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A48" s="10">
         <v>42</v>
       </c>
@@ -6391,7 +6408,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A49" s="10">
         <v>43</v>
       </c>
@@ -6418,7 +6435,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="16"/>
     </row>
-    <row r="50" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A50" s="10">
         <v>44</v>
       </c>
@@ -6445,7 +6462,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="16"/>
     </row>
-    <row r="51" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A51" s="10">
         <v>45</v>
       </c>
@@ -6474,7 +6491,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="16"/>
     </row>
-    <row r="52" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A52" s="10">
         <v>46</v>
       </c>
@@ -6499,7 +6516,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="16"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="10">
         <v>47</v>
       </c>
@@ -6519,7 +6536,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="16"/>
     </row>
-    <row r="54" spans="1:17" ht="385.75" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:17" ht="393.75" x14ac:dyDescent="0.4">
       <c r="A54" s="10">
         <v>48</v>
       </c>
@@ -6550,7 +6567,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="16"/>
     </row>
-    <row r="55" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A55" s="10">
         <v>49</v>
       </c>
@@ -6573,7 +6590,7 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="16"/>
     </row>
-    <row r="56" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A56" s="10">
         <v>50</v>
       </c>
@@ -6600,7 +6617,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="16"/>
     </row>
-    <row r="57" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A57" s="10">
         <v>51</v>
       </c>
@@ -6623,7 +6640,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="16"/>
     </row>
-    <row r="58" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A58" s="10">
         <v>52</v>
       </c>
@@ -6648,7 +6665,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="16"/>
     </row>
-    <row r="59" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A59" s="10">
         <v>53</v>
       </c>
@@ -6673,7 +6690,7 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="16"/>
     </row>
-    <row r="60" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A60" s="10">
         <v>54</v>
       </c>
@@ -6698,7 +6715,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="16"/>
     </row>
-    <row r="61" spans="1:17" ht="154.30000000000001" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
       <c r="A61" s="10">
         <v>55</v>
       </c>
@@ -6729,7 +6746,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="16"/>
     </row>
-    <row r="62" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A62" s="10">
         <v>56</v>
       </c>
@@ -6756,7 +6773,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="16"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="10">
         <v>57</v>
       </c>
@@ -6785,7 +6802,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="16"/>
     </row>
-    <row r="64" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A64" s="10">
         <v>58</v>
       </c>
@@ -6812,7 +6829,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="16"/>
     </row>
-    <row r="65" spans="1:17" ht="108" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A65" s="10">
         <v>59</v>
       </c>
@@ -6837,7 +6854,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="16"/>
     </row>
-    <row r="66" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A66" s="10">
         <v>60</v>
       </c>
@@ -6862,7 +6879,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="16"/>
     </row>
-    <row r="67" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A67" s="10">
         <v>61</v>
       </c>
@@ -6889,7 +6906,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="16"/>
     </row>
-    <row r="68" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A68" s="10">
         <v>62</v>
       </c>
@@ -6914,7 +6931,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="16"/>
     </row>
-    <row r="69" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A69" s="10">
         <v>63</v>
       </c>
@@ -6939,7 +6956,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="16"/>
     </row>
-    <row r="70" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A70" s="10">
         <v>64</v>
       </c>
@@ -6966,7 +6983,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="16"/>
     </row>
-    <row r="71" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A71" s="10">
         <v>65</v>
       </c>
@@ -6989,7 +7006,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="16"/>
     </row>
-    <row r="72" spans="1:17" ht="158.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:17" ht="158.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10">
         <v>66</v>
       </c>
@@ -7012,7 +7029,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="16"/>
     </row>
-    <row r="73" spans="1:17" ht="149.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:17" ht="149.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="10">
         <v>67</v>
       </c>
@@ -7037,7 +7054,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="16"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74" s="10">
         <v>68</v>
       </c>
@@ -7064,7 +7081,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="16"/>
     </row>
-    <row r="75" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A75" s="10">
         <v>69</v>
       </c>
@@ -7089,7 +7106,7 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="16"/>
     </row>
-    <row r="76" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A76" s="10">
         <v>70</v>
       </c>
@@ -7116,7 +7133,7 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="16"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77" s="10">
         <v>71</v>
       </c>
@@ -7147,7 +7164,7 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="16"/>
     </row>
-    <row r="78" spans="1:17" ht="169.75" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
       <c r="A78" s="10">
         <v>72</v>
       </c>
@@ -7176,7 +7193,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="16"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79" s="10">
         <v>73</v>
       </c>
@@ -7203,7 +7220,7 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="16"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80" s="10">
         <v>74</v>
       </c>
@@ -7230,7 +7247,7 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="16"/>
     </row>
-    <row r="81" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A81" s="10">
         <v>75</v>
       </c>
@@ -7263,7 +7280,7 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="16"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82" s="10">
         <v>76</v>
       </c>
@@ -7288,7 +7305,7 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="16"/>
     </row>
-    <row r="83" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A83" s="10">
         <v>77</v>
       </c>
@@ -7313,7 +7330,7 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="16"/>
     </row>
-    <row r="84" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A84" s="10">
         <v>78</v>
       </c>
@@ -7338,7 +7355,7 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="16"/>
     </row>
-    <row r="85" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A85" s="10">
         <v>79</v>
       </c>
@@ -7363,7 +7380,7 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="16"/>
     </row>
-    <row r="86" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A86" s="10">
         <v>80</v>
       </c>
@@ -7386,7 +7403,7 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="16"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87" s="10">
         <v>81</v>
       </c>
@@ -7413,7 +7430,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="16"/>
     </row>
-    <row r="88" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A88" s="10">
         <v>82</v>
       </c>
@@ -7438,7 +7455,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="16"/>
     </row>
-    <row r="89" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A89" s="10">
         <v>83</v>
       </c>
@@ -7463,7 +7480,7 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="16"/>
     </row>
-    <row r="90" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A90" s="10">
         <v>84</v>
       </c>
@@ -7490,7 +7507,7 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="16"/>
     </row>
-    <row r="91" spans="1:17" ht="160.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:17" ht="160.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="10">
         <v>85</v>
       </c>
@@ -7519,7 +7536,7 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="16"/>
     </row>
-    <row r="92" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A92" s="10">
         <v>86</v>
       </c>
@@ -7785,15 +7802,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -7804,14 +7812,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8477EB1C-E257-4B59-8CE9-15C64091F4F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8477EB1C-E257-4B59-8CE9-15C64091F4F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250DDE9D-0DA6-4364-A505-BD448E3188B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E2B06F-4E3F-4A63-BBE6-8E25003F4FC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E2B06F-4E3F-4A63-BBE6-8E25003F4FC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250DDE9D-0DA6-4364-A505-BD448E3188B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>